--- a/snowy-plugin/snowy-plugin-biz/src/main/resources/equExportTemplate.xlsx
+++ b/snowy-plugin/snowy-plugin-biz/src/main/resources/equExportTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15720"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="用户信息" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="71">
   <si>
     <t>填表说明：
 1.严禁对表格的列顺序、表头等进行修改，否则会导入失败，必填字段存在空值则该行数据不会被导入
@@ -24,22 +24,214 @@
 5.绿色为非必填字段，系统根据填写内容直接导入到数据库</t>
   </si>
   <si>
-    <t>名称</t>
-  </si>
-  <si>
-    <t>开始时间</t>
-  </si>
-  <si>
-    <t>结束时间</t>
-  </si>
-  <si>
-    <t>部署位置</t>
-  </si>
-  <si>
-    <t>作战任务</t>
-  </si>
-  <si>
-    <t>89.12587,115.287214</t>
+    <t>装备名称</t>
+  </si>
+  <si>
+    <t>型号</t>
+  </si>
+  <si>
+    <t>位置</t>
+  </si>
+  <si>
+    <t>寿命</t>
+  </si>
+  <si>
+    <t>使用情况</t>
+  </si>
+  <si>
+    <t>所属分类</t>
+  </si>
+  <si>
+    <t>入库时间</t>
+  </si>
+  <si>
+    <t>坦克01</t>
+  </si>
+  <si>
+    <t>tk-001</t>
+  </si>
+  <si>
+    <t>116.29446,39.92556</t>
+  </si>
+  <si>
+    <t>新品</t>
+  </si>
+  <si>
+    <t>空闲</t>
+  </si>
+  <si>
+    <t>坦克-01</t>
+  </si>
+  <si>
+    <t>坦克02</t>
+  </si>
+  <si>
+    <t>tk-002</t>
+  </si>
+  <si>
+    <t>115.875921,39.909622</t>
+  </si>
+  <si>
+    <t>坦克03</t>
+  </si>
+  <si>
+    <t>tk-003</t>
+  </si>
+  <si>
+    <t>113.606155,40.473991</t>
+  </si>
+  <si>
+    <t>坦克04</t>
+  </si>
+  <si>
+    <t>tk-004</t>
+  </si>
+  <si>
+    <t>112.897859,40.495063</t>
+  </si>
+  <si>
+    <t>坦克05</t>
+  </si>
+  <si>
+    <t>tk-005</t>
+  </si>
+  <si>
+    <t>坦克06</t>
+  </si>
+  <si>
+    <t>tk-006</t>
+  </si>
+  <si>
+    <t>112.235556,40.726411</t>
+  </si>
+  <si>
+    <t>坦克07</t>
+  </si>
+  <si>
+    <t>tk-007</t>
+  </si>
+  <si>
+    <t>114.627205,39.952114</t>
+  </si>
+  <si>
+    <t>坦克08</t>
+  </si>
+  <si>
+    <t>tk-008</t>
+  </si>
+  <si>
+    <t>114.627205,39.952115</t>
+  </si>
+  <si>
+    <t>坦克09</t>
+  </si>
+  <si>
+    <t>tk-009</t>
+  </si>
+  <si>
+    <t>114.627205,39.952116</t>
+  </si>
+  <si>
+    <t>坦克10</t>
+  </si>
+  <si>
+    <t>tk-010</t>
+  </si>
+  <si>
+    <t>114.627205,39.952117</t>
+  </si>
+  <si>
+    <t>坦克11</t>
+  </si>
+  <si>
+    <t>tk-011</t>
+  </si>
+  <si>
+    <t>114.627205,39.952118</t>
+  </si>
+  <si>
+    <t>坦克12</t>
+  </si>
+  <si>
+    <t>tk-012</t>
+  </si>
+  <si>
+    <t>114.627205,39.952119</t>
+  </si>
+  <si>
+    <t>坦克-02</t>
+  </si>
+  <si>
+    <t>坦克13</t>
+  </si>
+  <si>
+    <t>tk-013</t>
+  </si>
+  <si>
+    <t>114.627205,39.952120</t>
+  </si>
+  <si>
+    <t>坦克14</t>
+  </si>
+  <si>
+    <t>tk-014</t>
+  </si>
+  <si>
+    <t>114.627205,39.952121</t>
+  </si>
+  <si>
+    <t>坦克15</t>
+  </si>
+  <si>
+    <t>tk-015</t>
+  </si>
+  <si>
+    <t>114.627205,39.952122</t>
+  </si>
+  <si>
+    <t>坦克16</t>
+  </si>
+  <si>
+    <t>tk-016</t>
+  </si>
+  <si>
+    <t>115.252713,40.052925</t>
+  </si>
+  <si>
+    <t>坦克17</t>
+  </si>
+  <si>
+    <t>tk-017</t>
+  </si>
+  <si>
+    <t>115.252713,40.052926</t>
+  </si>
+  <si>
+    <t>坦克18</t>
+  </si>
+  <si>
+    <t>tk-018</t>
+  </si>
+  <si>
+    <t>115.252713,40.052927</t>
+  </si>
+  <si>
+    <t>坦克19</t>
+  </si>
+  <si>
+    <t>tk-019</t>
+  </si>
+  <si>
+    <t>115.252713,40.052928</t>
+  </si>
+  <si>
+    <t>坦克20</t>
+  </si>
+  <si>
+    <t>tk-020</t>
+  </si>
+  <si>
+    <t>115.252713,40.052929</t>
   </si>
 </sst>
 </file>
@@ -47,9 +239,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -77,17 +269,54 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -97,9 +326,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -111,18 +340,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -134,22 +364,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -159,73 +382,42 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -246,181 +438,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,11 +647,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -485,19 +689,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,32 +725,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,152 +749,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -713,62 +911,68 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1043,20 +1247,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XEC3"/>
+  <dimension ref="A1:XDX22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="20.8303571428571" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.5357142857143" style="2" customWidth="1"/>
-    <col min="3" max="3" width="33.0357142857143" style="2" customWidth="1"/>
-    <col min="4" max="4" width="39.4285714285714" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="6" customWidth="1"/>
+    <col min="1" max="1" width="20.8333333333333" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.5333333333333" style="2" customWidth="1"/>
+    <col min="3" max="3" width="33.0333333333333" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
+    <col min="6" max="6" width="19.875" customWidth="1"/>
+    <col min="7" max="7" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="94.5" customHeight="1" spans="1:4">
@@ -1067,7 +1272,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" ht="21" spans="1:4">
+    <row r="2" ht="18.75" spans="1:7">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1080,18 +1285,419 @@
       <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:XEC1"/>
+    <mergeCell ref="A1:XDX1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
